--- a/data/survival/Westcott/D_survival_07172024.xlsx
+++ b/data/survival/Westcott/D_survival_07172024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA206E31-46D2-3A4E-AF2D-248469C2F435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C37C6C-E69B-8140-9C5E-576355009328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A079655-F369-EC42-A8CC-268AB3376697}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/survival/Westcott/D_survival_07172024.xlsx
+++ b/data/survival/Westcott/D_survival_07172024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C37C6C-E69B-8140-9C5E-576355009328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2FD300-3AC7-DC4C-BB87-3EBACB7C04BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
+    <workbookView xWindow="6280" yWindow="1260" windowWidth="28040" windowHeight="17440" xr2:uid="{05BFE67F-2973-3145-973B-13A560625EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="39">
   <si>
     <t>bag_num</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>westcott_outplant</t>
+  </si>
+  <si>
+    <t>#79 tagged died</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A079655-F369-EC42-A8CC-268AB3376697}">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3467,6 +3470,713 @@
       </c>
       <c r="J89">
         <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>11</v>
+      </c>
+      <c r="I90">
+        <v>90</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" t="s">
+        <v>37</v>
+      </c>
+      <c r="F91" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>12</v>
+      </c>
+      <c r="I91">
+        <v>52</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92">
+        <v>13</v>
+      </c>
+      <c r="I92">
+        <v>102</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93">
+        <v>14</v>
+      </c>
+      <c r="I93">
+        <v>98</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94">
+        <v>15</v>
+      </c>
+      <c r="I94">
+        <v>98</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95">
+        <v>16</v>
+      </c>
+      <c r="I95">
+        <v>92</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" t="s">
+        <v>37</v>
+      </c>
+      <c r="F96" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>17</v>
+      </c>
+      <c r="I96">
+        <v>103</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97">
+        <v>18</v>
+      </c>
+      <c r="I97">
+        <v>98</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98">
+        <v>19</v>
+      </c>
+      <c r="I98">
+        <v>98</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>104</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100">
+        <v>21</v>
+      </c>
+      <c r="I100">
+        <v>94</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101">
+        <v>22</v>
+      </c>
+      <c r="I101">
+        <v>88</v>
+      </c>
+      <c r="J101">
+        <v>6</v>
+      </c>
+      <c r="K101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102">
+        <v>23</v>
+      </c>
+      <c r="I102">
+        <v>97</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>36</v>
+      </c>
+      <c r="E103" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103">
+        <v>24</v>
+      </c>
+      <c r="I103">
+        <v>103</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>36</v>
+      </c>
+      <c r="E104" t="s">
+        <v>37</v>
+      </c>
+      <c r="F104" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104">
+        <v>25</v>
+      </c>
+      <c r="I104">
+        <v>102</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105">
+        <v>26</v>
+      </c>
+      <c r="I105">
+        <v>102</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" t="s">
+        <v>37</v>
+      </c>
+      <c r="F106" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106">
+        <v>27</v>
+      </c>
+      <c r="I106">
+        <v>102</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107">
+        <v>28</v>
+      </c>
+      <c r="I107">
+        <v>98</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108">
+        <v>29</v>
+      </c>
+      <c r="I108">
+        <v>98</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109">
+        <v>30</v>
+      </c>
+      <c r="I109">
+        <v>98</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" t="s">
+        <v>36</v>
+      </c>
+      <c r="E110" t="s">
+        <v>37</v>
+      </c>
+      <c r="F110" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110">
+        <v>31</v>
+      </c>
+      <c r="I110">
+        <v>101</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111">
+        <v>32</v>
+      </c>
+      <c r="I111">
+        <v>97</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
